--- a/data/trans_bre/P16B12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; 3,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,33</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,83%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; 3,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,04; 3,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 1,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 2,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 2,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 1,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B12-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,38</t>
+          <t>-3,69; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,0</t>
+          <t>-1,93; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 4,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,54</t>
+          <t>-3,73; 3,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,0</t>
+          <t>-1,93; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,33</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 3,7</t>
+          <t>-12,17; 3,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 0,0</t>
+          <t>-10,2; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 1,61</t>
+          <t>-6,62; 1,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 3,83</t>
+          <t>-12,21; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 0,0</t>
+          <t>-10,2; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,63</t>
+          <t>-6,63; 1,64</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,17</t>
+          <t>-3,44; 2,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,76</t>
+          <t>-0,97; 1,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,25</t>
+          <t>-3,49; 2,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,81</t>
+          <t>-0,97; 2,04</t>
         </is>
       </c>
     </row>
